--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fulviof\Documents\CPT-personal\00-Esperto\GitHub\Analisi-esami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5AA405-B856-4991-A10A-3E697C7E75FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56318382-CCF8-4E45-9CC9-C362D92B466A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="983" yWindow="-98" windowWidth="19634" windowHeight="13875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>Totale Esame</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Docente 1</t>
+  </si>
+  <si>
+    <t>Docente 3</t>
   </si>
 </sst>
 </file>
@@ -999,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED124DE4-E9E6-468C-98D0-B6E94451AEF3}">
   <dimension ref="A1:AK606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -7573,240 +7576,456 @@
       </c>
     </row>
     <row r="55" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="5"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
+      <c r="A55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="17">
+        <v>4</v>
+      </c>
+      <c r="C55" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="D55" s="18">
+        <v>2</v>
+      </c>
+      <c r="E55" s="18">
+        <v>5</v>
+      </c>
+      <c r="F55" s="20">
+        <v>3</v>
+      </c>
+      <c r="G55" s="19">
+        <v>2</v>
+      </c>
+      <c r="H55" s="19">
+        <v>2</v>
+      </c>
+      <c r="I55" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="J55" s="19">
+        <v>2</v>
+      </c>
+      <c r="K55" s="20">
+        <v>1</v>
+      </c>
+      <c r="L55" s="19">
+        <v>1</v>
+      </c>
+      <c r="M55" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="N55" s="19">
+        <v>2</v>
+      </c>
+      <c r="O55" s="21">
+        <v>2</v>
+      </c>
+      <c r="P55" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="18">
+        <v>4</v>
+      </c>
+      <c r="R55" s="18">
+        <v>2</v>
+      </c>
+      <c r="S55" s="18">
+        <v>0</v>
+      </c>
+      <c r="T55" s="17">
+        <v>2</v>
+      </c>
+      <c r="U55" s="18">
+        <v>2</v>
+      </c>
+      <c r="V55" s="18">
+        <v>3</v>
+      </c>
+      <c r="W55" s="18">
+        <v>3</v>
+      </c>
+      <c r="X55" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="Y55" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="18">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="18">
+        <v>0</v>
+      </c>
       <c r="AB55" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC55" s="23">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD55" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AE55" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF55" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG55" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AH55" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AI55" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4.2608695652173907</v>
       </c>
       <c r="AJ55" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="AK55" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="5"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="18"/>
+      <c r="A56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="17">
+        <v>0</v>
+      </c>
+      <c r="C56" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="18">
+        <v>4</v>
+      </c>
+      <c r="E56" s="18">
+        <v>5</v>
+      </c>
+      <c r="F56" s="20">
+        <v>0</v>
+      </c>
+      <c r="G56" s="19">
+        <v>2</v>
+      </c>
+      <c r="H56" s="19">
+        <v>0</v>
+      </c>
+      <c r="I56" s="19">
+        <v>0</v>
+      </c>
+      <c r="J56" s="19">
+        <v>2</v>
+      </c>
+      <c r="K56" s="20">
+        <v>2</v>
+      </c>
+      <c r="L56" s="19">
+        <v>3</v>
+      </c>
+      <c r="M56" s="19">
+        <v>0</v>
+      </c>
+      <c r="N56" s="19">
+        <v>2</v>
+      </c>
+      <c r="O56" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="P56" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="18">
+        <v>4</v>
+      </c>
+      <c r="R56" s="18">
+        <v>2</v>
+      </c>
+      <c r="S56" s="18">
+        <v>3</v>
+      </c>
+      <c r="T56" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="U56" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="V56" s="18">
+        <v>3</v>
+      </c>
+      <c r="W56" s="18">
+        <v>3</v>
+      </c>
+      <c r="X56" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="Y56" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Z56" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA56" s="18">
+        <v>3</v>
+      </c>
       <c r="AB56" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC56" s="23">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD56" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE56" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF56" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG56" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH56" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AI56" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4.1521739130434785</v>
       </c>
       <c r="AJ56" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK56" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="5"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="18"/>
+      <c r="A57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="17">
+        <v>4</v>
+      </c>
+      <c r="C57" s="18">
+        <v>4</v>
+      </c>
+      <c r="D57" s="18">
+        <v>4</v>
+      </c>
+      <c r="E57" s="18">
+        <v>0</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0</v>
+      </c>
+      <c r="G57" s="19">
+        <v>0</v>
+      </c>
+      <c r="H57" s="19">
+        <v>2</v>
+      </c>
+      <c r="I57" s="19">
+        <v>0</v>
+      </c>
+      <c r="J57" s="19">
+        <v>2</v>
+      </c>
+      <c r="K57" s="20">
+        <v>3</v>
+      </c>
+      <c r="L57" s="19">
+        <v>3</v>
+      </c>
+      <c r="M57" s="19">
+        <v>2</v>
+      </c>
+      <c r="N57" s="19">
+        <v>2</v>
+      </c>
+      <c r="O57" s="21">
+        <v>3</v>
+      </c>
+      <c r="P57" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="R57" s="18">
+        <v>2</v>
+      </c>
+      <c r="S57" s="18">
+        <v>0</v>
+      </c>
+      <c r="T57" s="17">
+        <v>2</v>
+      </c>
+      <c r="U57" s="18">
+        <v>0</v>
+      </c>
+      <c r="V57" s="18">
+        <v>0</v>
+      </c>
+      <c r="W57" s="18">
+        <v>0</v>
+      </c>
+      <c r="X57" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="AA57" s="18">
+        <v>4</v>
+      </c>
       <c r="AB57" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC57" s="23">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD57" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE57" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AF57" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG57" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH57" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AI57" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3.8260869565217392</v>
       </c>
       <c r="AJ57" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK57" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="5"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="18"/>
+      <c r="A58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="17">
+        <v>3</v>
+      </c>
+      <c r="C58" s="18">
+        <v>0</v>
+      </c>
+      <c r="D58" s="18">
+        <v>0</v>
+      </c>
+      <c r="E58" s="18">
+        <v>3</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0</v>
+      </c>
+      <c r="G58" s="19">
+        <v>0</v>
+      </c>
+      <c r="H58" s="19">
+        <v>0</v>
+      </c>
+      <c r="I58" s="19">
+        <v>0</v>
+      </c>
+      <c r="J58" s="19">
+        <v>0</v>
+      </c>
+      <c r="K58" s="20">
+        <v>3</v>
+      </c>
+      <c r="L58" s="19">
+        <v>3</v>
+      </c>
+      <c r="M58" s="19">
+        <v>0</v>
+      </c>
+      <c r="N58" s="19">
+        <v>2</v>
+      </c>
+      <c r="O58" s="21">
+        <v>0</v>
+      </c>
+      <c r="P58" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="R58" s="18">
+        <v>2</v>
+      </c>
+      <c r="S58" s="18">
+        <v>3</v>
+      </c>
+      <c r="T58" s="17">
+        <v>4</v>
+      </c>
+      <c r="U58" s="18">
+        <v>4</v>
+      </c>
+      <c r="V58" s="18">
+        <v>3</v>
+      </c>
+      <c r="W58" s="18">
+        <v>3</v>
+      </c>
+      <c r="X58" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="Y58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Z58" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="AA58" s="18">
+        <v>2</v>
+      </c>
       <c r="AB58" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC58" s="23">
         <f t="shared" si="18"/>
@@ -7814,67 +8033,121 @@
       </c>
       <c r="AD58" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE58" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AF58" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG58" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH58" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AI58" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3.8260869565217392</v>
       </c>
       <c r="AJ58" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK58" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="5"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
+      <c r="A59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="17">
+        <v>4</v>
+      </c>
+      <c r="C59" s="18">
+        <v>4</v>
+      </c>
+      <c r="D59" s="18">
+        <v>1</v>
+      </c>
+      <c r="E59" s="18">
+        <v>6</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0</v>
+      </c>
+      <c r="G59" s="19">
+        <v>0</v>
+      </c>
+      <c r="H59" s="19">
+        <v>0</v>
+      </c>
+      <c r="I59" s="19">
+        <v>0</v>
+      </c>
+      <c r="J59" s="19">
+        <v>0</v>
+      </c>
+      <c r="K59" s="20">
+        <v>2</v>
+      </c>
+      <c r="L59" s="19">
+        <v>3</v>
+      </c>
+      <c r="M59" s="19">
+        <v>0</v>
+      </c>
+      <c r="N59" s="19">
+        <v>2</v>
+      </c>
+      <c r="O59" s="21">
+        <v>4</v>
+      </c>
+      <c r="P59" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="R59" s="18">
+        <v>2</v>
+      </c>
+      <c r="S59" s="18">
+        <v>1</v>
+      </c>
+      <c r="T59" s="17">
+        <v>4</v>
+      </c>
+      <c r="U59" s="18">
+        <v>4</v>
+      </c>
+      <c r="V59" s="18">
+        <v>3</v>
+      </c>
+      <c r="W59" s="18">
+        <v>3</v>
+      </c>
+      <c r="X59" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="Y59" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="Z59" s="18">
+        <v>2</v>
+      </c>
+      <c r="AA59" s="18">
+        <v>2</v>
+      </c>
       <c r="AB59" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC59" s="23">
         <f t="shared" si="18"/>
@@ -7882,67 +8155,121 @@
       </c>
       <c r="AD59" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE59" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AF59" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG59" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH59" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="AI59" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4.179347826086957</v>
       </c>
       <c r="AJ59" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK59" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="5"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="18"/>
+      <c r="A60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="C60" s="18">
+        <v>3</v>
+      </c>
+      <c r="D60" s="18">
+        <v>2</v>
+      </c>
+      <c r="E60" s="18">
+        <v>6</v>
+      </c>
+      <c r="F60" s="20">
+        <v>0</v>
+      </c>
+      <c r="G60" s="19">
+        <v>0</v>
+      </c>
+      <c r="H60" s="19">
+        <v>0</v>
+      </c>
+      <c r="I60" s="19">
+        <v>0</v>
+      </c>
+      <c r="J60" s="19">
+        <v>0</v>
+      </c>
+      <c r="K60" s="20">
+        <v>0</v>
+      </c>
+      <c r="L60" s="19">
+        <v>1</v>
+      </c>
+      <c r="M60" s="19">
+        <v>0</v>
+      </c>
+      <c r="N60" s="19">
+        <v>2</v>
+      </c>
+      <c r="O60" s="21">
+        <v>4</v>
+      </c>
+      <c r="P60" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="18">
+        <v>2</v>
+      </c>
+      <c r="R60" s="18">
+        <v>2</v>
+      </c>
+      <c r="S60" s="18">
+        <v>0</v>
+      </c>
+      <c r="T60" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="U60" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="V60" s="18">
+        <v>3</v>
+      </c>
+      <c r="W60" s="18">
+        <v>3</v>
+      </c>
+      <c r="X60" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="Y60" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="Z60" s="18">
+        <v>2</v>
+      </c>
+      <c r="AA60" s="18">
+        <v>3</v>
+      </c>
       <c r="AB60" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC60" s="23">
         <f t="shared" si="18"/>
@@ -7950,271 +8277,487 @@
       </c>
       <c r="AD60" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE60" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF60" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG60" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH60" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="AI60" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3.7989130434782608</v>
       </c>
       <c r="AJ60" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK60" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="5"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="18"/>
-      <c r="AA61" s="18"/>
+      <c r="A61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="17">
+        <v>4</v>
+      </c>
+      <c r="C61" s="18">
+        <v>4</v>
+      </c>
+      <c r="D61" s="18">
+        <v>4</v>
+      </c>
+      <c r="E61" s="18">
+        <v>0</v>
+      </c>
+      <c r="F61" s="20">
+        <v>3</v>
+      </c>
+      <c r="G61" s="19">
+        <v>0</v>
+      </c>
+      <c r="H61" s="19">
+        <v>3</v>
+      </c>
+      <c r="I61" s="19">
+        <v>3</v>
+      </c>
+      <c r="J61" s="19">
+        <v>2</v>
+      </c>
+      <c r="K61" s="20">
+        <v>3</v>
+      </c>
+      <c r="L61" s="19">
+        <v>3</v>
+      </c>
+      <c r="M61" s="19">
+        <v>2</v>
+      </c>
+      <c r="N61" s="19">
+        <v>2</v>
+      </c>
+      <c r="O61" s="21">
+        <v>4</v>
+      </c>
+      <c r="P61" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q61" s="18">
+        <v>2</v>
+      </c>
+      <c r="R61" s="18">
+        <v>2</v>
+      </c>
+      <c r="S61" s="18">
+        <v>3</v>
+      </c>
+      <c r="T61" s="17">
+        <v>4</v>
+      </c>
+      <c r="U61" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="V61" s="18">
+        <v>3</v>
+      </c>
+      <c r="W61" s="18">
+        <v>3</v>
+      </c>
+      <c r="X61" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="Y61" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z61" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA61" s="18">
+        <v>0</v>
+      </c>
       <c r="AB61" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC61" s="23">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD61" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE61" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF61" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG61" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH61" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AI61" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4.9673913043478262</v>
       </c>
       <c r="AJ61" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK61" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="5"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="18"/>
-      <c r="AA62" s="18"/>
+      <c r="A62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="17">
+        <v>3</v>
+      </c>
+      <c r="C62" s="18">
+        <v>4</v>
+      </c>
+      <c r="D62" s="18">
+        <v>4</v>
+      </c>
+      <c r="E62" s="18">
+        <v>5</v>
+      </c>
+      <c r="F62" s="20">
+        <v>0</v>
+      </c>
+      <c r="G62" s="19">
+        <v>3</v>
+      </c>
+      <c r="H62" s="19">
+        <v>1</v>
+      </c>
+      <c r="I62" s="19">
+        <v>0</v>
+      </c>
+      <c r="J62" s="19">
+        <v>1</v>
+      </c>
+      <c r="K62" s="20">
+        <v>2</v>
+      </c>
+      <c r="L62" s="19">
+        <v>3</v>
+      </c>
+      <c r="M62" s="19">
+        <v>2</v>
+      </c>
+      <c r="N62" s="19">
+        <v>2</v>
+      </c>
+      <c r="O62" s="21">
+        <v>4</v>
+      </c>
+      <c r="P62" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="18">
+        <v>4</v>
+      </c>
+      <c r="R62" s="18">
+        <v>2</v>
+      </c>
+      <c r="S62" s="18">
+        <v>3</v>
+      </c>
+      <c r="T62" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="U62" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="V62" s="18">
+        <v>3</v>
+      </c>
+      <c r="W62" s="18">
+        <v>2</v>
+      </c>
+      <c r="X62" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="Y62" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="Z62" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="18">
+        <v>5</v>
+      </c>
       <c r="AB62" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC62" s="23">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD62" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE62" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF62" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG62" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH62" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AI62" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4.9673913043478262</v>
       </c>
       <c r="AJ62" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK62" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="5"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="18"/>
+      <c r="A63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="17">
+        <v>3</v>
+      </c>
+      <c r="C63" s="18">
+        <v>4</v>
+      </c>
+      <c r="D63" s="18">
+        <v>4</v>
+      </c>
+      <c r="E63" s="18">
+        <v>5</v>
+      </c>
+      <c r="F63" s="20">
+        <v>3</v>
+      </c>
+      <c r="G63" s="19">
+        <v>3</v>
+      </c>
+      <c r="H63" s="19">
+        <v>3</v>
+      </c>
+      <c r="I63" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="J63" s="19">
+        <v>2</v>
+      </c>
+      <c r="K63" s="20">
+        <v>2</v>
+      </c>
+      <c r="L63" s="19">
+        <v>3</v>
+      </c>
+      <c r="M63" s="19">
+        <v>0</v>
+      </c>
+      <c r="N63" s="19">
+        <v>2</v>
+      </c>
+      <c r="O63" s="21">
+        <v>3</v>
+      </c>
+      <c r="P63" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q63" s="18">
+        <v>2</v>
+      </c>
+      <c r="R63" s="18">
+        <v>0</v>
+      </c>
+      <c r="S63" s="18">
+        <v>0</v>
+      </c>
+      <c r="T63" s="17">
+        <v>4</v>
+      </c>
+      <c r="U63" s="18">
+        <v>2</v>
+      </c>
+      <c r="V63" s="18">
+        <v>0</v>
+      </c>
+      <c r="W63" s="18">
+        <v>0</v>
+      </c>
+      <c r="X63" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="Y63" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="Z63" s="18">
+        <v>2</v>
+      </c>
+      <c r="AA63" s="18">
+        <v>0</v>
+      </c>
       <c r="AB63" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC63" s="23">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD63" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE63" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF63" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG63" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH63" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="AI63" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4.179347826086957</v>
       </c>
       <c r="AJ63" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK63" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="5"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="18"/>
+      <c r="A64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="17">
+        <v>3</v>
+      </c>
+      <c r="C64" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="D64" s="18">
+        <v>4</v>
+      </c>
+      <c r="E64" s="18">
+        <v>0</v>
+      </c>
+      <c r="F64" s="20">
+        <v>0</v>
+      </c>
+      <c r="G64" s="19">
+        <v>0</v>
+      </c>
+      <c r="H64" s="19">
+        <v>0</v>
+      </c>
+      <c r="I64" s="19">
+        <v>0</v>
+      </c>
+      <c r="J64" s="19">
+        <v>0</v>
+      </c>
+      <c r="K64" s="20">
+        <v>3</v>
+      </c>
+      <c r="L64" s="19">
+        <v>3</v>
+      </c>
+      <c r="M64" s="19">
+        <v>0</v>
+      </c>
+      <c r="N64" s="19">
+        <v>2</v>
+      </c>
+      <c r="O64" s="21">
+        <v>0</v>
+      </c>
+      <c r="P64" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="18">
+        <v>2</v>
+      </c>
+      <c r="R64" s="18">
+        <v>2</v>
+      </c>
+      <c r="S64" s="18">
+        <v>0</v>
+      </c>
+      <c r="T64" s="17">
+        <v>4</v>
+      </c>
+      <c r="U64" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="V64" s="18">
+        <v>0</v>
+      </c>
+      <c r="W64" s="18">
+        <v>0</v>
+      </c>
+      <c r="X64" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="Y64" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="18">
+        <v>2</v>
+      </c>
       <c r="AB64" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC64" s="23">
         <f t="shared" si="18"/>
@@ -8222,135 +8765,243 @@
       </c>
       <c r="AD64" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE64" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF64" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AG64" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AH64" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="AI64" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3.0923913043478262</v>
       </c>
       <c r="AJ64" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK64" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="5"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
-      <c r="W65" s="18"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="18"/>
-      <c r="AA65" s="18"/>
+      <c r="A65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="C65" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="18">
+        <v>2</v>
+      </c>
+      <c r="E65" s="18">
+        <v>5</v>
+      </c>
+      <c r="F65" s="20">
+        <v>3</v>
+      </c>
+      <c r="G65" s="19">
+        <v>0</v>
+      </c>
+      <c r="H65" s="19">
+        <v>0</v>
+      </c>
+      <c r="I65" s="19">
+        <v>0</v>
+      </c>
+      <c r="J65" s="19">
+        <v>2</v>
+      </c>
+      <c r="K65" s="20">
+        <v>3</v>
+      </c>
+      <c r="L65" s="19">
+        <v>3</v>
+      </c>
+      <c r="M65" s="19">
+        <v>0</v>
+      </c>
+      <c r="N65" s="19">
+        <v>2</v>
+      </c>
+      <c r="O65" s="21">
+        <v>1</v>
+      </c>
+      <c r="P65" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q65" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="R65" s="18">
+        <v>2</v>
+      </c>
+      <c r="S65" s="18">
+        <v>3</v>
+      </c>
+      <c r="T65" s="17">
+        <v>4</v>
+      </c>
+      <c r="U65" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="V65" s="18">
+        <v>3</v>
+      </c>
+      <c r="W65" s="18">
+        <v>3</v>
+      </c>
+      <c r="X65" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="Y65" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="Z65" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="AA65" s="18">
+        <v>5</v>
+      </c>
       <c r="AB65" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC65" s="23">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD65" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE65" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AF65" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG65" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH65" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="AI65" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4.5054347826086953</v>
       </c>
       <c r="AJ65" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="AK65" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="5"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="18"/>
-      <c r="AA66" s="18"/>
+      <c r="A66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="D66" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="18">
+        <v>0</v>
+      </c>
+      <c r="F66" s="20">
+        <v>0</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0</v>
+      </c>
+      <c r="H66" s="19">
+        <v>0</v>
+      </c>
+      <c r="I66" s="19">
+        <v>0</v>
+      </c>
+      <c r="J66" s="19">
+        <v>0</v>
+      </c>
+      <c r="K66" s="20">
+        <v>0</v>
+      </c>
+      <c r="L66" s="19">
+        <v>3</v>
+      </c>
+      <c r="M66" s="19">
+        <v>2</v>
+      </c>
+      <c r="N66" s="19">
+        <v>0</v>
+      </c>
+      <c r="O66" s="21">
+        <v>0</v>
+      </c>
+      <c r="P66" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="18">
+        <v>2</v>
+      </c>
+      <c r="R66" s="18">
+        <v>2</v>
+      </c>
+      <c r="S66" s="18">
+        <v>1</v>
+      </c>
+      <c r="T66" s="17">
+        <v>1</v>
+      </c>
+      <c r="U66" s="18">
+        <v>0</v>
+      </c>
+      <c r="V66" s="18">
+        <v>0</v>
+      </c>
+      <c r="W66" s="18">
+        <v>0</v>
+      </c>
+      <c r="X66" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z66" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="18">
+        <v>0</v>
+      </c>
       <c r="AB66" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AC66" s="23">
         <f t="shared" si="18"/>
@@ -8358,79 +9009,133 @@
       </c>
       <c r="AD66" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE66" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF66" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG66" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH66" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="AI66" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2.1684782608695654</v>
       </c>
       <c r="AJ66" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK66" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="5"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="18"/>
-      <c r="Z67" s="18"/>
-      <c r="AA67" s="18"/>
+      <c r="A67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C67" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="D67" s="18">
+        <v>2</v>
+      </c>
+      <c r="E67" s="18">
+        <v>4</v>
+      </c>
+      <c r="F67" s="20">
+        <v>0</v>
+      </c>
+      <c r="G67" s="19">
+        <v>0</v>
+      </c>
+      <c r="H67" s="19">
+        <v>2</v>
+      </c>
+      <c r="I67" s="19">
+        <v>0</v>
+      </c>
+      <c r="J67" s="19">
+        <v>2</v>
+      </c>
+      <c r="K67" s="20">
+        <v>3</v>
+      </c>
+      <c r="L67" s="19">
+        <v>3</v>
+      </c>
+      <c r="M67" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="N67" s="19">
+        <v>2</v>
+      </c>
+      <c r="O67" s="21">
+        <v>3</v>
+      </c>
+      <c r="P67" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q67" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="R67" s="18">
+        <v>2</v>
+      </c>
+      <c r="S67" s="18">
+        <v>3</v>
+      </c>
+      <c r="T67" s="17">
+        <v>0</v>
+      </c>
+      <c r="U67" s="18">
+        <v>0</v>
+      </c>
+      <c r="V67" s="18">
+        <v>0</v>
+      </c>
+      <c r="W67" s="18">
+        <v>0</v>
+      </c>
+      <c r="X67" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="Y67" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="18">
+        <v>1</v>
+      </c>
       <c r="AB67" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC67" s="23">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD67" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE67" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AF67" s="23">
         <f t="shared" si="20"/>
@@ -8438,87 +9143,141 @@
       </c>
       <c r="AG67" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH67" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="AI67" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3.0380434782608696</v>
       </c>
       <c r="AJ67" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK67" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:37" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="5"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="18"/>
-      <c r="Z68" s="18"/>
-      <c r="AA68" s="18"/>
+      <c r="A68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="17">
+        <v>3</v>
+      </c>
+      <c r="C68" s="18">
+        <v>4</v>
+      </c>
+      <c r="D68" s="18">
+        <v>2</v>
+      </c>
+      <c r="E68" s="18">
+        <v>6</v>
+      </c>
+      <c r="F68" s="20">
+        <v>0</v>
+      </c>
+      <c r="G68" s="19">
+        <v>0</v>
+      </c>
+      <c r="H68" s="19">
+        <v>0</v>
+      </c>
+      <c r="I68" s="19">
+        <v>0</v>
+      </c>
+      <c r="J68" s="19">
+        <v>2</v>
+      </c>
+      <c r="K68" s="20">
+        <v>2</v>
+      </c>
+      <c r="L68" s="19">
+        <v>3</v>
+      </c>
+      <c r="M68" s="19">
+        <v>2</v>
+      </c>
+      <c r="N68" s="19">
+        <v>2</v>
+      </c>
+      <c r="O68" s="21">
+        <v>4</v>
+      </c>
+      <c r="P68" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q68" s="18">
+        <v>4</v>
+      </c>
+      <c r="R68" s="18">
+        <v>2</v>
+      </c>
+      <c r="S68" s="18">
+        <v>1</v>
+      </c>
+      <c r="T68" s="17">
+        <v>4</v>
+      </c>
+      <c r="U68" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="V68" s="18">
+        <v>3</v>
+      </c>
+      <c r="W68" s="18">
+        <v>3</v>
+      </c>
+      <c r="X68" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="Y68" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="Z68" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="AA68" s="18">
+        <v>3</v>
+      </c>
       <c r="AB68" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC68" s="23">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD68" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE68" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF68" s="23">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG68" s="23">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH68" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AI68" s="33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4.5869565217391308</v>
       </c>
       <c r="AJ68" s="36">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="AK68" s="34">
         <v>0</v>
